--- a/notif_anomalies.xlsx
+++ b/notif_anomalies.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19452\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRATYUSH\Downloads\SMUCBRE\hacksmu\hacksmu-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDE612A8-9074-4F7E-8FB7-6E8AD13FA91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FEF3EC-B89A-4C35-A6D9-0BC7BA94844E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5616" yWindow="2388" windowWidth="17280" windowHeight="8880" xr2:uid="{0E198C0F-F47E-4057-997F-04F21EAB1652}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E198C0F-F47E-4057-997F-04F21EAB1652}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,15 +41,9 @@
     <t xml:space="preserve">Anomaly </t>
   </si>
   <si>
-    <t>Asset Type</t>
-  </si>
-  <si>
     <t>Manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Room </t>
-  </si>
-  <si>
     <t>Floor</t>
   </si>
   <si>
@@ -69,6 +63,12 @@
   </si>
   <si>
     <t>Manufacturer_4</t>
+  </si>
+  <si>
+    <t>AssetType</t>
+  </si>
+  <si>
+    <t>Room</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,16 +436,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -453,10 +453,10 @@
         <v>-1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>103</v>
@@ -470,10 +470,10 @@
         <v>-1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>104</v>
@@ -487,10 +487,10 @@
         <v>-1</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
       <c r="D4">
         <v>107</v>
@@ -504,10 +504,10 @@
         <v>-1</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>107</v>
@@ -521,10 +521,10 @@
         <v>-1</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>104</v>
@@ -538,10 +538,10 @@
         <v>-1</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>102</v>
@@ -555,10 +555,10 @@
         <v>-1</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>103</v>
